--- a/Output/Best_of_three.xlsx
+++ b/Output/Best_of_three.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Github/nvanvlasselaer/Knee-kinematics/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB05021-EAEF-6141-ACB4-B7BC46F2006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C8180C-8E05-954C-AEF9-E8720EA7C42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17720" yWindow="760" windowWidth="16840" windowHeight="10780" xr2:uid="{85246F83-E515-794A-8280-6FC13F01C8AD}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Subject</t>
   </si>
   <si>
-    <t>Degree_x</t>
-  </si>
-  <si>
     <t>Best OKC - L</t>
   </si>
   <si>
@@ -57,6 +54,36 @@
   </si>
   <si>
     <t>Receiver wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score </t>
+  </si>
+  <si>
+    <t>A++</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B (better without cal)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>B (receiver wrong but useable)</t>
+  </si>
+  <si>
+    <t>B (without interpolation)</t>
+  </si>
+  <si>
+    <t>B- (sensor moved?)</t>
   </si>
 </sst>
 </file>
@@ -436,544 +463,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BC911-D6C3-BD4A-B836-1D314EA1FA77}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>-11.119681</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-6.3315590000000004</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>-7.4124819999999998</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-5.4408770000000004</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>-2.7705320000000002</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-7.9910899999999998</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>-15.716469</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-16.020121</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>-4.1676929999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5.1156519999999999</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
-        <v>-4.8188339999999998</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-6.4344200000000003</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <v>-13.530181000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-1.406331</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/Best_of_three.xlsx
+++ b/Output/Best_of_three.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Github/nvanvlasselaer/Knee-kinematics/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C8180C-8E05-954C-AEF9-E8720EA7C42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CDC6E1-6B7A-224C-B670-F9983C02EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17720" yWindow="760" windowWidth="16840" windowHeight="10780" xr2:uid="{85246F83-E515-794A-8280-6FC13F01C8AD}"/>
+    <workbookView xWindow="17820" yWindow="760" windowWidth="16740" windowHeight="21580" xr2:uid="{85246F83-E515-794A-8280-6FC13F01C8AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>Subject</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Best CKC - R</t>
   </si>
   <si>
-    <t>Receiver wrong</t>
-  </si>
-  <si>
     <t xml:space="preserve">Score </t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>B (better without cal)</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>B+</t>
   </si>
   <si>
@@ -84,6 +78,27 @@
   </si>
   <si>
     <t>B- (sensor moved?)</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>b-</t>
+  </si>
+  <si>
+    <t>b (better without cal?)</t>
+  </si>
+  <si>
+    <t>c ((without interpolation and cal)</t>
+  </si>
+  <si>
+    <t>b+</t>
   </si>
 </sst>
 </file>
@@ -99,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -143,12 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,9 +189,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +229,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,18 +485,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BC911-D6C3-BD4A-B836-1D314EA1FA77}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -493,8 +516,11 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,28 +531,42 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -537,12 +577,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -553,12 +600,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -569,12 +623,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -585,26 +646,42 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -615,12 +692,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -631,12 +715,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -647,12 +738,19 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -663,12 +761,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -679,12 +778,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -695,12 +795,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -711,12 +812,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -727,26 +829,30 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -757,12 +863,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -773,12 +880,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -789,12 +897,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -805,12 +914,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -821,12 +931,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -837,12 +948,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -853,12 +965,13 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -869,12 +982,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -885,100 +999,164 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/Best_of_three.xlsx
+++ b/Output/Best_of_three.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Github/nvanvlasselaer/Knee-kinematics/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CDC6E1-6B7A-224C-B670-F9983C02EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4185429B-7BF5-1742-9A97-1782A5CA28BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17820" yWindow="760" windowWidth="16740" windowHeight="21580" xr2:uid="{85246F83-E515-794A-8280-6FC13F01C8AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="23">
   <si>
     <t>Subject</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>b+</t>
+  </si>
+  <si>
+    <t>3!</t>
+  </si>
+  <si>
+    <t>C z= +40°??)</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,13 +176,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +501,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,9 +776,15 @@
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -780,9 +799,15 @@
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -797,9 +822,15 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -814,9 +845,15 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -831,9 +868,15 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -848,9 +891,15 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -865,9 +914,15 @@
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -882,9 +937,15 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -899,8 +960,12 @@
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -916,9 +981,15 @@
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -933,9 +1004,15 @@
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -950,9 +1027,15 @@
       <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -967,9 +1050,15 @@
       <c r="D24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -984,9 +1073,15 @@
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="E25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1001,9 +1096,15 @@
       <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1018,9 +1119,15 @@
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1035,9 +1142,15 @@
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -1052,9 +1165,15 @@
       <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -1069,9 +1188,11 @@
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -1086,9 +1207,15 @@
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -1103,9 +1230,15 @@
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -1120,9 +1253,15 @@
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -1137,9 +1276,15 @@
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -1154,9 +1299,15 @@
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
